--- a/gelv/static/gelv/xlsx/product_row.xlsx
+++ b/gelv/static/gelv/xlsx/product_row.xlsx
@@ -59,7 +59,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left style="none"/>
       <right style="none"/>
@@ -69,43 +69,17 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </bottom>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="none"/>
       <diagonal style="none"/>
     </border>
   </borders>
@@ -115,13 +89,13 @@
   <cellXfs count="4">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
-    <xf fontId="1" fillId="3" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf fontId="1" fillId="3" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="1" fillId="3" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf fontId="1" fillId="3" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -627,17 +601,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" ht="150">
+    <row r="1" ht="15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
+      <c r="B1" s="1"/>
+      <c r="C1" s="2">
         <v>12</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
